--- a/EXCEL/Main EXCEL SHEET.xlsx
+++ b/EXCEL/Main EXCEL SHEET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TEXT FUNCTIONS" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,9 @@
     <sheet name="conditions" sheetId="4" r:id="rId3"/>
     <sheet name="Scenario based que on conditins" sheetId="1" r:id="rId4"/>
     <sheet name="Date and time functions" sheetId="5" r:id="rId5"/>
-    <sheet name="Vlookup" sheetId="6" r:id="rId6"/>
+    <sheet name="V-LOOKUP" sheetId="6" r:id="rId6"/>
+    <sheet name="H-LOOKUP" sheetId="7" r:id="rId7"/>
+    <sheet name="X-LOOKUP" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="204">
   <si>
     <t xml:space="preserve">TEXT FUNCTION </t>
   </si>
@@ -505,6 +507,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The TEXT function formats numbers and dates as </t>
     </r>
     <r>
@@ -546,6 +555,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>VLOOKUP</t>
     </r>
     <r>
@@ -603,6 +620,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Syntax</t>
     </r>
     <r>
@@ -664,6 +689,231 @@
   </si>
   <si>
     <t>QUE 4) FIND THE SALARY OF EMP 104 ?</t>
+  </si>
+  <si>
+    <t>H-LOOKUP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HLOOKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Horizontal Lookup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It’s a function in Microsoft Excel (and other spreadsheet software) used to search for a value in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a table or range and return a value in the same column from another </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specified row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYNTAX :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- =hlookup(lookup_value,table_array,row_index_num,[range_lookup]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENARIO :- </t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>1) Find Q3 sales of laptop ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:- NEED TO SELECT THE ROW FROM THE TABLE ONLY .LAPTOP IS ON 2 ND NO </t>
+  </si>
+  <si>
+    <t>1)FIND Q4 SALES OF MOBILE ?</t>
+  </si>
+  <si>
+    <t>2)FIND Q1 SALES FOR LAPTOP ?</t>
+  </si>
+  <si>
+    <t>X-LOOKUP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">XLOOKUP searches a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range or array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a match and returns the corresponding value from another range or array.</t>
+    </r>
+  </si>
+  <si>
+    <t>SYNTAX :--</t>
+  </si>
+  <si>
+    <t>XLOOKUP(lookup_value,lookup_array,,ROW_index_num)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENARIO :-- </t>
+  </si>
+  <si>
+    <t>QUE 1)</t>
+  </si>
+  <si>
+    <t>find the salary of emp 102 ?</t>
+  </si>
+  <si>
+    <t>ans :--</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>clora</t>
+  </si>
+  <si>
+    <t>QUE2)</t>
+  </si>
+  <si>
+    <t>FIND THE DEPT OF EMP 104 ?</t>
+  </si>
+  <si>
+    <t>AND :--</t>
+  </si>
+  <si>
+    <t>QUE 3)</t>
+  </si>
+  <si>
+    <t>FIND THE NAME OF EMP 101?</t>
+  </si>
+  <si>
+    <t>AND:--</t>
   </si>
 </sst>
 </file>
@@ -679,10 +929,69 @@
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy\ hh:mm"/>
     <numFmt numFmtId="182" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,21 +1035,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="16"/>
@@ -753,21 +1047,6 @@
       <b/>
       <u/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -933,13 +1212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,171 +1580,204 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1480,25 +1792,25 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,31 +1822,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2077,7 +2383,7 @@
   <sheetPr/>
   <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2097,263 +2403,263 @@
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="6:8">
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="5" ht="18.75" spans="1:14">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="6">
         <v>22</v>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="19" t="str">
         <f t="shared" ref="I6:I9" si="0">LEFT(G6,6)</f>
         <v>Shweta</v>
       </c>
-      <c r="J6" s="26" t="str">
+      <c r="J6" s="19" t="str">
         <f>RIGHT(G6,8)</f>
         <v>Ghotekar</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="19" t="str">
         <f>MID(G6,7,7)</f>
         <v> Tejram</v>
       </c>
-      <c r="L6" s="26" t="str">
+      <c r="L6" s="19" t="str">
         <f>UPPER(A6)</f>
         <v>SHWETA</v>
       </c>
-      <c r="M6" s="26" t="str">
+      <c r="M6" s="19" t="str">
         <f t="shared" ref="M6:M9" si="1">LOWER(L6)</f>
         <v>shweta</v>
       </c>
-      <c r="N6" s="26" t="str">
+      <c r="N6" s="19" t="str">
         <f t="shared" ref="N6:N9" si="2">PROPER(A6)</f>
         <v>Shweta</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="6">
         <v>23</v>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="19" t="str">
         <f>LEFT(G7,7)</f>
         <v>Shradha</v>
       </c>
-      <c r="J7" s="26" t="str">
+      <c r="J7" s="19" t="str">
         <f>RIGHT(G7,9)</f>
         <v>Maleishra</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="19" t="str">
         <f>MID(G7,8,6)</f>
         <v> Pavan</v>
       </c>
-      <c r="L7" s="26" t="str">
+      <c r="L7" s="19" t="str">
         <f t="shared" ref="L7:L9" si="3">UPPER(J7)</f>
         <v>MALEISHRA</v>
       </c>
-      <c r="M7" s="26" t="str">
+      <c r="M7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>maleishra</v>
       </c>
-      <c r="N7" s="26" t="str">
+      <c r="N7" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Shradha</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Shruti</v>
       </c>
-      <c r="J8" s="26" t="str">
+      <c r="J8" s="19" t="str">
         <f>RIGHT(G8,7)</f>
         <v>Nakhare</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="19" t="str">
         <f>MID(G8,8,3)</f>
         <v> T.</v>
       </c>
-      <c r="L8" s="26" t="str">
+      <c r="L8" s="19" t="str">
         <f t="shared" si="3"/>
         <v>NAKHARE</v>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>nakhare</v>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N8" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Shruti</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="6">
         <v>13</v>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sakshi</v>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J9" s="19" t="str">
         <f>RIGHT(G9,6)</f>
         <v>Sarode</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26" t="str">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="str">
         <f t="shared" si="3"/>
         <v>SARODE</v>
       </c>
-      <c r="M9" s="26" t="str">
+      <c r="M9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>sarode</v>
       </c>
-      <c r="N9" s="26" t="str">
+      <c r="N9" s="19" t="str">
         <f t="shared" si="2"/>
         <v>   Sakshi</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2382,292 +2688,292 @@
   </cols>
   <sheetData>
     <row r="2" ht="18.75" spans="6:8">
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="5" ht="93.75" spans="1:11">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="6">
         <v>55</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="6">
         <v>70000</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="6">
         <v>85</v>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" ref="G7:G12" si="0">IF(D7="HR","Human Resource",D7)</f>
         <v>Human Resource</v>
       </c>
-      <c r="H7" s="27" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" ref="H7:H12" si="1">IF(B7&gt;=50,"senior","junior")</f>
         <v>senior</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" ref="I7:I12" si="2">IF(C7&gt;=50000,"high","low")</f>
         <v>high</v>
       </c>
-      <c r="J7" s="27" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" ref="J7:J12" si="3">IF(OR(B7&gt;=50,E7="female"),"half ticket","full ticket")</f>
         <v>half ticket</v>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="6" t="str">
         <f t="shared" ref="K7:K12" si="4">IF(OR(B7&lt;30,C7&lt;50000),"bonus","no bonus")</f>
         <v>no bonus</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="6">
         <v>28</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="6">
         <v>45000</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="6">
         <v>92</v>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SALES</v>
       </c>
-      <c r="H8" s="27" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>junior</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>low</v>
       </c>
-      <c r="J8" s="27" t="str">
+      <c r="J8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>half ticket</v>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="6" t="str">
         <f t="shared" si="4"/>
         <v>bonus</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="6">
         <v>40</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="6">
         <v>52000</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="6">
         <v>76</v>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Human Resource</v>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>junior</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>high</v>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="6" t="str">
         <f t="shared" si="3"/>
         <v>full ticket</v>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="6" t="str">
         <f t="shared" si="4"/>
         <v>no bonus</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="6">
         <v>65</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="6">
         <v>85000</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="6">
         <v>88</v>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>IT</v>
       </c>
-      <c r="H10" s="27" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>senior</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>high</v>
       </c>
-      <c r="J10" s="27" t="str">
+      <c r="J10" s="6" t="str">
         <f t="shared" si="3"/>
         <v>half ticket</v>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="6" t="str">
         <f t="shared" si="4"/>
         <v>no bonus</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="6">
         <v>48000</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="6">
         <v>67</v>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SALES</v>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>junior</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>low</v>
       </c>
-      <c r="J11" s="27" t="str">
+      <c r="J11" s="6" t="str">
         <f t="shared" si="3"/>
         <v>full ticket</v>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="6" t="str">
         <f t="shared" si="4"/>
         <v>bonus</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="6">
         <v>35000</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="6">
         <v>91</v>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>IT</v>
       </c>
-      <c r="H12" s="27" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>junior</v>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>low</v>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="6" t="str">
         <f t="shared" si="3"/>
         <v>half ticket</v>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="6" t="str">
         <f t="shared" si="4"/>
         <v>bonus</v>
       </c>
@@ -2699,332 +3005,332 @@
   </cols>
   <sheetData>
     <row r="2" ht="23.25" spans="8:8">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" ht="115" customHeight="1" spans="1:13">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="6">
         <v>55</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="6">
         <v>70000</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="6">
         <v>85</v>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="F6" s="19" t="str">
         <f>IF(AND(B6&gt;30,C6&gt;50000),"eligible for bonus","not eligible")</f>
         <v>eligible for bonus</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27" t="str">
+      <c r="G6" s="19"/>
+      <c r="H6" s="6" t="str">
         <f t="shared" ref="H6:H11" si="0">IF(OR(B6&lt;25,C6&lt;40000),"need growth","stable")</f>
         <v>stable</v>
       </c>
-      <c r="I6" s="27" t="str" cm="1">
+      <c r="I6" s="6" t="str" cm="1">
         <f t="array" ref="I6">IF(B6&gt;=50,"senior",IF(B6&gt;=30,"young",adult))</f>
         <v>senior</v>
       </c>
-      <c r="J6" s="27" t="str" cm="1">
+      <c r="J6" s="6" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.IFS(B6&gt;=50,"senior",B6&gt;=30,"young",B6&lt;30,"adult")</f>
         <v>senior</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="6">
         <f>SUMIF(D6:D11,"HR",C6:C11)</f>
         <v>155000</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="6">
         <f>AVERAGEIF(D6:D11,"HR",E6:E11)</f>
         <v>86.5</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="6">
         <f>COUNTIF(D6:D11,"IT")</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="6">
         <v>28</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="6">
         <v>45000</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="6">
         <v>92</v>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(AND(B7&gt;30,C7&gt;50000),"Eligible for bonus","not eligible for bonus")</f>
         <v>not eligible for bonus</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="str">
+      <c r="G7" s="19"/>
+      <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>stable</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" ref="I7:I11" si="1">IF(B7&gt;=50,"senior",IF(B7&gt;=30,"young","adult"))</f>
         <v>adult</v>
       </c>
-      <c r="J7" s="27" t="str" cm="1">
+      <c r="J7" s="6" t="str" cm="1">
         <f t="array" ref="J7">_xlfn.IFS(B7&gt;=50,"senior",B7&gt;=30,"young",B7&lt;30,"adult")</f>
         <v>adult</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="6">
         <f>SUMIF(D7:D12,"IT",C7:C12)</f>
         <v>93000</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="6">
         <f>AVERAGEIF(D6:D11,"IT",E6:E11)</f>
         <v>79.5</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="6">
         <f>COUNTIF(D6:D11,"IT")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="6">
         <v>40</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="6">
         <v>52000</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="6">
         <v>75</v>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F8" s="19" t="str">
         <f t="shared" ref="F8:F11" si="2">IF(AND(B8&gt;30,C8&gt;50000),"Eligible fr bonus","not eligible for bonus")</f>
         <v>Eligible fr bonus</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27" t="str">
+      <c r="G8" s="19"/>
+      <c r="H8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>stable</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>young</v>
       </c>
-      <c r="J8" s="27" t="str" cm="1">
+      <c r="J8" s="6" t="str" cm="1">
         <f t="array" ref="J8">_xlfn.IFS(B8&gt;=50,"senior",B8&gt;=30,"young",B8&lt;30,"adult")</f>
         <v>young</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="6">
         <f>SUMIF(D8:D13,"SALES",C8:C13)</f>
         <v>87000</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="6">
         <f>AVERAGEIF(D6:D11,"SALES",E6:E11)</f>
         <v>83</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="6">
         <f>COUNTIF(D6:D11,"SALES")</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="6">
         <v>65</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="6">
         <v>85000</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="6">
         <v>88</v>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Eligible fr bonus</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27" t="str">
+      <c r="G9" s="19"/>
+      <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>stable</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>senior</v>
       </c>
-      <c r="J9" s="27" t="str" cm="1">
+      <c r="J9" s="6" t="str" cm="1">
         <f t="array" ref="J9">_xlfn.IFS(B9&gt;=50,"senior",B9&gt;=30,"young",B9&lt;30,"adult")</f>
         <v>senior</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="6">
         <f>SUMIF(D6:D11,"HR",C6:C11)</f>
         <v>155000</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="6">
         <f>AVERAGEIF(D6:D11,"HR",E6:E11)</f>
         <v>86.5</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="6">
         <f>COUNTIF(D6:D11,"HR")</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="6">
         <v>30</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="6">
         <v>48000</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="6">
         <v>67</v>
       </c>
-      <c r="F10" s="26" t="str">
+      <c r="F10" s="19" t="str">
         <f t="shared" si="2"/>
         <v>not eligible for bonus</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="str">
+      <c r="G10" s="19"/>
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>stable</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>young</v>
       </c>
-      <c r="J10" s="27" t="str" cm="1">
+      <c r="J10" s="6" t="str" cm="1">
         <f t="array" ref="J10">_xlfn.IFS(B10&gt;=50,"senior",B10&gt;=30,"young",B10&lt;30,"adult")</f>
         <v>young</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="6">
         <f>SUMIF(D6:D11,"IT",C6:C11)</f>
         <v>93000</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="6">
         <f>AVERAGEIF(D6:D11,"IT",E6:E11)</f>
         <v>79.5</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="6">
         <f>COUNTIF(D6:D11,"IT")</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="6">
         <v>22</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="6">
         <v>35000</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="6">
         <v>91</v>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>not eligible for bonus</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27" t="str">
+      <c r="G11" s="19"/>
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>need growth</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>adult</v>
       </c>
-      <c r="J11" s="27" t="str" cm="1">
+      <c r="J11" s="6" t="str" cm="1">
         <f t="array" ref="J11">_xlfn.IFS(B11&gt;=50,"senior",B11&gt;=30,"young",B11&lt;30,"adult")</f>
         <v>adult</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="6">
         <f>SUMIF(D6:D11,"SALES",C6:C11)</f>
         <v>87000</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="6">
         <f>AVERAGEIF(D6:D11,"SALES",E6:E11)</f>
         <v>83</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="6">
         <f>COUNTIF(D6:D11,"SALES")</f>
         <v>2</v>
       </c>
@@ -3105,648 +3411,648 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:8">
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="7:8">
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="7:8">
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="7:8">
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" ht="21" spans="7:8">
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" ht="126" spans="1:23">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="19" t="s">
+      <c r="W8" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:20">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" ht="15.75" spans="1:23">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="32">
         <v>12000</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="32">
         <v>10000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="32">
         <v>5</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="32">
         <v>4.5</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="32" t="str">
         <f>IF(C10&gt;=D10,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="31" t="str">
         <f>IF(AND(C10&gt;D10,E10&gt;3),"Eligible for bonus","not eligible")</f>
         <v>Eligible for bonus</v>
       </c>
-      <c r="I10" s="20" t="str">
+      <c r="I10" s="31" t="str">
         <f t="shared" ref="I10:I15" si="0">IF(OR(F10&lt;3.5,C10&lt;D10),"need attention","no attention")</f>
         <v>no attention</v>
       </c>
-      <c r="J10" s="20" t="str" cm="1">
+      <c r="J10" s="31" t="str" cm="1">
         <f t="array" ref="J10">_xlfn.IFS(F10&gt;=4.5,"execellent",F10&gt;3.5-4.49,"good",F10&lt;3.5,"averge")</f>
         <v>execellent</v>
       </c>
-      <c r="K10" s="20" t="str">
+      <c r="K10" s="31" t="str">
         <f>IF(AND(B10="sales",F10&gt;4),"promotion","")</f>
         <v>promotion</v>
       </c>
-      <c r="L10" s="21" t="str">
+      <c r="L10" s="32" t="str">
         <f>IF(OR(E11&lt;2,F11&lt;3),"training required","no")</f>
         <v>no</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="32" t="str">
         <f t="shared" ref="M10:M15" si="1">IF(C10&gt;=11000,"high",IF(C10&gt;=9000,"medium","low"))</f>
         <v>high</v>
       </c>
-      <c r="N10" s="21" t="str" cm="1">
+      <c r="N10" s="32" t="str" cm="1">
         <f t="array" ref="N10">_xlfn.IFS(C10&gt;=11000,"high",C10&gt;=9000,"medium",C10&lt;9000,"low")</f>
         <v>high</v>
       </c>
-      <c r="O10" s="21" t="str">
+      <c r="O10" s="32" t="str">
         <f>IF(AND(B10="HR",F10&gt;=4),"star","no")</f>
         <v>no</v>
       </c>
-      <c r="P10" s="21" t="str" cm="1">
+      <c r="P10" s="32" t="str" cm="1">
         <f t="array" ref="P10">_xlfn.IFS(E10&gt;=5,"senior",E10&gt;=3,"mid",E10&lt;3,"junior")</f>
         <v>senior</v>
       </c>
-      <c r="Q10" s="21" t="str">
+      <c r="Q10" s="32" t="str">
         <f t="shared" ref="Q10:Q15" si="2">IF(E10&gt;=5,"senior",IF(E10&gt;=3,"mid","junior"))</f>
         <v>senior</v>
       </c>
-      <c r="R10" s="21" t="str">
+      <c r="R10" s="32" t="str">
         <f t="shared" ref="R10:R15" si="3">IF(OR(B10="sales",B10="marketing"),"client facing","internal")</f>
         <v>client facing</v>
       </c>
-      <c r="S10" s="20" t="str">
+      <c r="S10" s="31" t="str">
         <f>IF(AND(E10&gt;4,C10&gt;9500),"incentive","no incentive")</f>
         <v>incentive</v>
       </c>
-      <c r="T10" s="20" t="str" cm="1">
+      <c r="T10" s="31" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.IFS(F10&gt;=4.5,"outstanding",F10&gt;=4,"very good",F10&gt;=3,"satisfactory",F10&lt;3,"poor")</f>
         <v>outstanding</v>
       </c>
-      <c r="U10" s="20" t="str">
+      <c r="U10" s="31" t="str">
         <f>IF(OR(C10&lt;9000,E10&lt;2),"warning","NO")</f>
         <v>NO</v>
       </c>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="31" t="str">
         <f>IF(AND(E10&gt;=5,B10&lt;&gt;"HR"),"manager","NO")</f>
         <v>manager</v>
       </c>
-      <c r="W10" s="20" t="str" cm="1">
+      <c r="W10" s="31" t="str" cm="1">
         <f t="array" ref="W10">_xlfn.IFS(C10&gt;=12000,"15%",C10&gt;=10000,"10%",C10&gt;=9000,"5%",C10&lt;9000,"0")</f>
         <v>15%</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:23">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="32">
         <v>8000</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="32">
         <v>9000</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="32">
         <v>3.2</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="32" t="str">
         <f>IF(C11&gt;=D11,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="31" t="str">
         <f>IF(AND(C11&gt;D11,E11&gt;3),"eligible for bonus","not eligible")</f>
         <v>not eligible</v>
       </c>
-      <c r="I11" s="20" t="str">
+      <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>need attention</v>
       </c>
-      <c r="J11" s="20" t="str" cm="1">
+      <c r="J11" s="31" t="str" cm="1">
         <f t="array" ref="J11">_xlfn.IFS(F11&gt;=4.5,"execellent",F11=3.5-4.49,"good",F11&lt;3.5,"average")</f>
         <v>average</v>
       </c>
-      <c r="K11" s="20" t="str">
+      <c r="K11" s="31" t="str">
         <f>IF(AND(B11="sales",F11&gt;4),"promotion","no promotion")</f>
         <v>no promotion</v>
       </c>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="32" t="str">
         <f>IF(OR(E12&lt;2,F12&lt;3),"training required","no")</f>
         <v>no</v>
       </c>
-      <c r="M11" s="21" t="str">
+      <c r="M11" s="32" t="str">
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="N11" s="21" t="str" cm="1">
+      <c r="N11" s="32" t="str" cm="1">
         <f t="array" ref="N11">_xlfn.IFS(C11&gt;=11000,"high",C11&gt;=9000,"medium",C11&lt;9000,"low")</f>
         <v>low</v>
       </c>
-      <c r="O11" s="21" t="str">
+      <c r="O11" s="32" t="str">
         <f>IF(AND(B11="HR",F11&gt;=4),"STAR","NO")</f>
         <v>NO</v>
       </c>
-      <c r="P11" s="21" t="str" cm="1">
+      <c r="P11" s="32" t="str" cm="1">
         <f t="array" ref="P11">_xlfn.IFS(E11&gt;=5,"senior",E11&gt;=3,"mid",E11&lt;3,"junior")</f>
         <v>mid</v>
       </c>
-      <c r="Q11" s="21" t="str">
+      <c r="Q11" s="32" t="str">
         <f t="shared" si="2"/>
         <v>mid</v>
       </c>
-      <c r="R11" s="21" t="str">
+      <c r="R11" s="32" t="str">
         <f t="shared" si="3"/>
         <v>internal</v>
       </c>
-      <c r="S11" s="20" t="str">
+      <c r="S11" s="31" t="str">
         <f>IF(AND(E11&gt;4,C11&gt;=9500),"incentive","no incentive")</f>
         <v>no incentive</v>
       </c>
-      <c r="T11" s="20" t="str" cm="1">
+      <c r="T11" s="31" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.IFS(F11&gt;=4.5,"outstanding",F11&gt;=4,"very good",F11&gt;=3,"satisfactory",F11&lt;3,"poor")</f>
         <v>satisfactory</v>
       </c>
-      <c r="U11" s="20" t="str">
+      <c r="U11" s="31" t="str">
         <f>IF(OR(C10&lt;9000,E10&lt;2),"WARNING","NO")</f>
         <v>NO</v>
       </c>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="31" t="str">
         <f>IF(AND(E11&gt;=5,B11&lt;&gt;"HR"),"manager","no")</f>
         <v>no</v>
       </c>
-      <c r="W11" s="20" t="str" cm="1">
+      <c r="W11" s="31" t="str" cm="1">
         <f t="array" ref="W11">_xlfn.IFS(C11&gt;=12000,"15%",C11&gt;=10000,"10%",C11&gt;=9000,"5%",C11&lt;9000,"0")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:23">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="32">
         <v>95000</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="32">
         <v>10000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="32">
         <v>3.8</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="32" t="str">
         <f>IF(C12&gt;D12,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="31" t="str">
         <f>IF(AND(C12&gt;=D12,E12&gt;3),"eligible for bonus","not eligible")</f>
         <v>not eligible</v>
       </c>
-      <c r="I12" s="20" t="str">
+      <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>no attention</v>
       </c>
-      <c r="J12" s="20" t="str" cm="1">
+      <c r="J12" s="31" t="str" cm="1">
         <f t="array" ref="J12">_xlfn.IFS(F12&gt;=4.5,"execellent",F12&gt;=3.5,"good",F12&lt;3.5,"average")</f>
         <v>good</v>
       </c>
-      <c r="K12" s="20" t="str">
+      <c r="K12" s="31" t="str">
         <f>IF(AND(B12="sales",F12&gt;4),"promotion","no promotion")</f>
         <v>no promotion</v>
       </c>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="32" t="str">
         <f>IF(OR(E12&lt;2,F12&lt;3),"training required","no")</f>
         <v>no</v>
       </c>
-      <c r="M12" s="21" t="str">
+      <c r="M12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-      <c r="N12" s="21" t="str" cm="1">
+      <c r="N12" s="32" t="str" cm="1">
         <f t="array" ref="N12">_xlfn.IFS(C12&gt;=11000,"high",C12&gt;=9000,"medium",C12&lt;9000,"low")</f>
         <v>high</v>
       </c>
-      <c r="O12" s="21" t="str">
+      <c r="O12" s="32" t="str">
         <f>IF(AND(B12="HR",F12&gt;=4),"STAR","NO")</f>
         <v>NO</v>
       </c>
-      <c r="P12" s="21" t="str" cm="1">
+      <c r="P12" s="32" t="str" cm="1">
         <f t="array" ref="P12">_xlfn.IFS(E12&gt;=5,"senior",E12&gt;=3,"mid",E12&lt;3,"junior")</f>
         <v>junior</v>
       </c>
-      <c r="Q12" s="21" t="str">
+      <c r="Q12" s="32" t="str">
         <f t="shared" si="2"/>
         <v>junior</v>
       </c>
-      <c r="R12" s="21" t="str">
+      <c r="R12" s="32" t="str">
         <f t="shared" si="3"/>
         <v>client facing</v>
       </c>
-      <c r="S12" s="20" t="str">
+      <c r="S12" s="31" t="str">
         <f>IF(AND(E12&gt;4,C12&gt;9500),"incentive","no incentive")</f>
         <v>no incentive</v>
       </c>
-      <c r="T12" s="20" t="str" cm="1">
+      <c r="T12" s="31" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(F12&gt;=4.5,"outstanding",F12&gt;=4,"very good",F12&gt;=3,"satisfactory",F12&lt;3,"poor")</f>
         <v>satisfactory</v>
       </c>
-      <c r="U12" s="20" t="str">
+      <c r="U12" s="31" t="str">
         <f>IF(OR(C12&lt;9000,E12&lt;2),"WARNING","NO")</f>
         <v>NO</v>
       </c>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="31" t="str">
         <f>IF(AND(E12&gt;=5,B12&lt;&gt;"HR"),"manager","no")</f>
         <v>no</v>
       </c>
-      <c r="W12" s="20" t="str" cm="1">
+      <c r="W12" s="31" t="str" cm="1">
         <f t="array" ref="W12">_xlfn.IFS(C12&gt;=12000,"15%",C12&gt;=10000,"10%",C12&gt;=9000,"5%",C12&lt;9000,"0")</f>
         <v>15%</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:23">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="32">
         <v>10000</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="32">
         <v>95000</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="32">
         <v>6</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="32">
         <v>4.7</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="32" t="str">
         <f>IF(C13&gt;=D13,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="31" t="str">
         <f>IF(AND(C13&gt;D13,E13&gt;3,),"eligible for bonus","not eligible")</f>
         <v>not eligible</v>
       </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" s="31" t="str">
         <f t="shared" si="0"/>
         <v>need attention</v>
       </c>
-      <c r="J13" s="20" t="str" cm="1">
+      <c r="J13" s="31" t="str" cm="1">
         <f t="array" ref="J13">_xlfn.IFS(F13&gt;=4.5,"execellent",F13&gt;3.5,"good",F13&lt;3.5,"average")</f>
         <v>execellent</v>
       </c>
-      <c r="K13" s="20" t="str">
+      <c r="K13" s="31" t="str">
         <f>IF(AND(B13="sales",F13&gt;4),"promotion","no promotion")</f>
         <v>promotion</v>
       </c>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="32" t="str">
         <f>IF(OR(E13&lt;2,F13&lt;3),"training required","no")</f>
         <v>no</v>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="32" t="str">
         <f t="shared" si="1"/>
         <v>medium</v>
       </c>
-      <c r="N13" s="21" t="str" cm="1">
+      <c r="N13" s="32" t="str" cm="1">
         <f t="array" ref="N13">_xlfn.IFS(C13&gt;=11000,"high",C13&gt;=9000,"medium",C13&lt;=9000,"low")</f>
         <v>medium</v>
       </c>
-      <c r="O13" s="21" t="str">
+      <c r="O13" s="32" t="str">
         <f>IF(AND(B13="HR",F13&gt;=4),"STAR","NO")</f>
         <v>NO</v>
       </c>
-      <c r="P13" s="21" t="str" cm="1">
+      <c r="P13" s="32" t="str" cm="1">
         <f t="array" ref="P13">_xlfn.IFS(E13&gt;=5,"senior",E13&gt;=3,"mid",E13&lt;3,"junior")</f>
         <v>senior</v>
       </c>
-      <c r="Q13" s="21" t="str">
+      <c r="Q13" s="32" t="str">
         <f t="shared" si="2"/>
         <v>senior</v>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="R13" s="32" t="str">
         <f t="shared" si="3"/>
         <v>client facing</v>
       </c>
-      <c r="S13" s="20" t="str">
+      <c r="S13" s="31" t="str">
         <f>IF(AND(E13&gt;4,C13&gt;9500),"incentive","no incentive")</f>
         <v>incentive</v>
       </c>
-      <c r="T13" s="20" t="str" cm="1">
+      <c r="T13" s="31" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(F13&gt;=4.5,"outstanding",F13&gt;=4,"very good",F13&gt;=3,"satisfactory",F13&lt;3,"poor")</f>
         <v>outstanding</v>
       </c>
-      <c r="U13" s="20" t="str">
+      <c r="U13" s="31" t="str">
         <f>IF(OR(C13&lt;9000,E13&lt;2),"WARNING","NO")</f>
         <v>NO</v>
       </c>
-      <c r="V13" s="20" t="str">
+      <c r="V13" s="31" t="str">
         <f>IF(AND(E13&gt;=5,B13&lt;&gt;"HR"),"manager","no")</f>
         <v>manager</v>
       </c>
-      <c r="W13" s="20" t="str" cm="1">
+      <c r="W13" s="31" t="str" cm="1">
         <f t="array" ref="W13">_xlfn.IFS(C13&gt;=12000,"15%",C13&gt;=10000,"10%",C13&gt;=9000,"5%",C13&lt;9000,"0")</f>
         <v>10%</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:23">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="32">
         <v>8800</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="32">
         <v>10000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="32">
         <v>2.9</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="32" t="str">
         <f>IF(C14&gt;=D14,"YES","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="31" t="str">
         <f>IF(AND(C14&gt;D14,E14&gt;3),"eligible for bonus","not eligible")</f>
         <v>not eligible</v>
       </c>
-      <c r="I14" s="20" t="str">
+      <c r="I14" s="31" t="str">
         <f t="shared" si="0"/>
         <v>need attention</v>
       </c>
-      <c r="J14" s="20" t="str" cm="1">
+      <c r="J14" s="31" t="str" cm="1">
         <f t="array" ref="J14">_xlfn.IFS(F14&gt;=4.5,"execellent",F14&gt;3.5,"good",F14&lt;3.5,"average")</f>
         <v>average</v>
       </c>
-      <c r="K14" s="20" t="str">
+      <c r="K14" s="31" t="str">
         <f>IF(AND(B14="sales",F14&gt;4),"promotion","no promotion")</f>
         <v>no promotion</v>
       </c>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="32" t="str">
         <f>IF(OR(E14&lt;2,F14&lt;3),"training required","no")</f>
         <v>training required</v>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="32" t="str">
         <f t="shared" si="1"/>
         <v>low</v>
       </c>
-      <c r="N14" s="21" t="str" cm="1">
+      <c r="N14" s="32" t="str" cm="1">
         <f t="array" ref="N14">_xlfn.IFS(C14&gt;=11000,"high",C14&gt;=9000,"medium",C14&lt;=9000,"low")</f>
         <v>low</v>
       </c>
-      <c r="O14" s="21" t="str">
+      <c r="O14" s="32" t="str">
         <f>IF(AND(B14="HR",F14&gt;=4),"STAR","NO")</f>
         <v>NO</v>
       </c>
-      <c r="P14" s="21" t="str" cm="1">
+      <c r="P14" s="32" t="str" cm="1">
         <f t="array" ref="P14">_xlfn.IFS(E14&gt;=5,"senior",E14&gt;=3,"mid",E14&lt;3,"junior")</f>
         <v>junior</v>
       </c>
-      <c r="Q14" s="21" t="str">
+      <c r="Q14" s="32" t="str">
         <f t="shared" si="2"/>
         <v>junior</v>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="32" t="str">
         <f t="shared" si="3"/>
         <v>internal</v>
       </c>
-      <c r="S14" s="20" t="str">
+      <c r="S14" s="31" t="str">
         <f>IF(AND(E14&gt;4,C14&gt;9500),"incentive","no incentive")</f>
         <v>no incentive</v>
       </c>
-      <c r="T14" s="20" t="str" cm="1">
+      <c r="T14" s="31" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(F14&gt;=4.5,"outstanding",F14&gt;=4,"very good",F14&gt;=3,"satisfactory",F14&lt;3,"poor")</f>
         <v>poor</v>
       </c>
-      <c r="U14" s="20" t="str">
+      <c r="U14" s="31" t="str">
         <f>IF(OR(C14&lt;9000,E14&lt;2),"WARNING","NO")</f>
         <v>WARNING</v>
       </c>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="31" t="str">
         <f>IF(AND(E14&gt;=5,B14&lt;&gt;"HR"),"manager","no")</f>
         <v>no</v>
       </c>
-      <c r="W14" s="20" t="str" cm="1">
+      <c r="W14" s="31" t="str" cm="1">
         <f t="array" ref="W14">_xlfn.IFS(C14&gt;=12000,"15%",C14&gt;=10000,"10%",C14&gt;=9000,"5%",C14&lt;9000,"0")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:23">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="32">
         <v>9100</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="32">
         <v>9000</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="32">
         <v>4</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="32">
         <v>4</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="32" t="str">
         <f>IF(C15&gt;=D15,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="31" t="str">
         <f>IF(AND(C15&gt;D15,E15&gt;3),"eligible for bonus","not eligible")</f>
         <v>eligible for bonus</v>
       </c>
-      <c r="I15" s="20" t="str">
+      <c r="I15" s="31" t="str">
         <f t="shared" si="0"/>
         <v>no attention</v>
       </c>
-      <c r="J15" s="20" t="str" cm="1">
+      <c r="J15" s="31" t="str" cm="1">
         <f t="array" ref="J15">_xlfn.IFS(E15&gt;=4.5,"execellent",E15&gt;3.5,"good",E15&lt;3.5,"average")</f>
         <v>good</v>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" s="31" t="str">
         <f>IF(AND(B15="sales",F15&gt;4),"promotion","no promotion")</f>
         <v>no promotion</v>
       </c>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="32" t="str">
         <f>IF(OR(E15&lt;2,F15&lt;3),"training required","no")</f>
         <v>no</v>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="32" t="str">
         <f t="shared" si="1"/>
         <v>medium</v>
       </c>
-      <c r="N15" s="21" t="str" cm="1">
+      <c r="N15" s="32" t="str" cm="1">
         <f t="array" ref="N15">_xlfn.IFS(C15&gt;=11000,"high",C15&gt;=9000,"medium",C15&lt;=9000,"low")</f>
         <v>medium</v>
       </c>
-      <c r="O15" s="21" t="str">
+      <c r="O15" s="32" t="str">
         <f>IF(AND(B15="HR",F15&gt;=4),"STAR","NO")</f>
         <v>STAR</v>
       </c>
-      <c r="P15" s="21" t="str" cm="1">
+      <c r="P15" s="32" t="str" cm="1">
         <f t="array" ref="P15">_xlfn.IFS(E15&gt;=5,"senior",E15&gt;=3,"mid",E15&lt;3,"junior")</f>
         <v>mid</v>
       </c>
-      <c r="Q15" s="21" t="str">
+      <c r="Q15" s="32" t="str">
         <f t="shared" si="2"/>
         <v>mid</v>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="R15" s="32" t="str">
         <f t="shared" si="3"/>
         <v>internal</v>
       </c>
-      <c r="S15" s="20" t="str">
+      <c r="S15" s="31" t="str">
         <f>IF(AND(E15&gt;4,C15&gt;9500),"incentive","no incentive")</f>
         <v>no incentive</v>
       </c>
-      <c r="T15" s="20" t="str" cm="1">
+      <c r="T15" s="31" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(F15&gt;=4.5,"outstanding",F15&gt;=4,"very good",F15&gt;=3,"satisfactory",F15&lt;3,"poor")</f>
         <v>very good</v>
       </c>
-      <c r="U15" s="20" t="str">
+      <c r="U15" s="31" t="str">
         <f>IF(OR(C15&lt;9000,E15&lt;2),"WARNING","NO")</f>
         <v>NO</v>
       </c>
-      <c r="V15" s="20" t="str">
+      <c r="V15" s="31" t="str">
         <f>IF(AND(E15&gt;=5,B15&lt;&gt;"HR"),"manager","no")</f>
         <v>no</v>
       </c>
-      <c r="W15" s="20" t="str" cm="1">
+      <c r="W15" s="31" t="str" cm="1">
         <f t="array" ref="W15">_xlfn.IFS(C15&gt;=12000,"15%",C15&gt;=10000,"10%",C15&gt;=9000,"5%",C15&lt;9000,"0")</f>
         <v>5%</v>
       </c>
@@ -3855,360 +4161,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" ht="40" customHeight="1" spans="2:7">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="23">
         <f ca="1">TODAY()</f>
-        <v>45755</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>45756</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="24">
         <f ca="1">NOW()</f>
-        <v>45755.9147800926</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+        <v>45756.9052083333</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f>DAY("2025-04-08")</f>
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f>MONTH("2025-04-08")</f>
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <f>YEAR("2025-04-08")</f>
         <v>2025</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <f>HOUR("9:30")</f>
         <v>9</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <f>MINUTE("9:30")</f>
         <v>30</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <f>SECOND("9:30:45")</f>
         <v>45</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="30" spans="1:5">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="25">
         <f ca="1">WEEKDAY(NOW())</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="25">
         <f>WEEKDAY("2025-01-20")</f>
         <v>2</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" ht="30" spans="1:5">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="25">
         <f>WEEKNUM("2025-12-1")</f>
         <v>49</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="25">
         <f ca="1">WEEKNUM(NOW())</f>
         <v>15</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="45" spans="1:5">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="25">
         <f>DATEDIF("1995-06-13","2025-06-13","y")</f>
         <v>30</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="25">
         <f>DATEDIF("2000-01-01","2025-01-15","M")</f>
         <v>300</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="25">
         <f>DATEDIF("2000-04-08","2025-08-01","D")</f>
         <v>9246</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="6" t="str">
         <f>TEXT("2025-04-08","M")</f>
         <v>4</v>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="6" t="str">
         <f>TEXT("2025-04-08","MMMM")</f>
         <v>April</v>
       </c>
-      <c r="E28" s="14" t="str">
+      <c r="E28" s="25" t="str">
         <f>TEXT("2025-04-08","MM")</f>
         <v>04</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="26">
         <f>TIME(21,32,50)</f>
         <v>0.897800925925926</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="26">
         <f>TIME(7,30,40)</f>
         <v>0.312962962962963</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="8"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="8"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="8"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="8"/>
+      <c r="E37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4221,7 +4527,7 @@
   <sheetPr/>
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4233,113 +4539,113 @@
   </cols>
   <sheetData>
     <row r="2" ht="28.5" spans="5:5">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="13" customFormat="1" ht="15.75" spans="1:1">
+      <c r="A4" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="13" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="13" customFormat="1" ht="24" customHeight="1" spans="1:1">
+      <c r="A8" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="13" customFormat="1" ht="18" customHeight="1" spans="1:1">
+      <c r="A9" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="21" customHeight="1" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="13" customFormat="1" ht="21" customHeight="1" spans="1:1">
+      <c r="A10" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="13" customFormat="1" ht="24" customHeight="1" spans="1:1">
+      <c r="A11" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="14" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>101</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>102</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>103</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>70000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>104</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>55000</v>
       </c>
     </row>
@@ -4397,6 +4703,310 @@
       <c r="B30">
         <f>VLOOKUP(104,A15:D18,4,FALSE())</f>
         <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25" spans="7:7">
+      <c r="G2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" ht="21" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="12">
+        <v>500</v>
+      </c>
+      <c r="C11" s="12">
+        <v>700</v>
+      </c>
+      <c r="D11" s="12">
+        <v>800</v>
+      </c>
+      <c r="E11" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="12">
+        <v>900</v>
+      </c>
+      <c r="C12" s="12">
+        <v>850</v>
+      </c>
+      <c r="D12" s="12">
+        <v>950</v>
+      </c>
+      <c r="E12" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f>HLOOKUP("Q3",A10:E12,2,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f>HLOOKUP("Q4",A10:E12,3,FALSE())</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f>HLOOKUP("Q1",A10:E12,2,FALSE())</f>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="18.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="26.25" spans="7:7">
+      <c r="G2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="21" spans="1:8">
+      <c r="A11" s="6">
+        <v>101</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="8">
+        <f>_xlfn.XLOOKUP(102,A11:A14,D11:D14)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:8">
+      <c r="A12" s="6">
+        <v>102</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="21" spans="1:8">
+      <c r="A13" s="6">
+        <v>103</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="6">
+        <v>70000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="21" spans="1:8">
+      <c r="A14" s="6">
+        <v>104</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="6">
+        <v>55000</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>_xlfn.XLOOKUP(104,A11:A14,C11:C14)</f>
+        <v>MARKETING</v>
+      </c>
+    </row>
+    <row r="15" ht="21" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="21" spans="6:8">
+      <c r="F16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" ht="21" spans="6:8">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>_xlfn.XLOOKUP(101,A11:A14,B11:B14)</f>
+        <v>alex</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/Main EXCEL SHEET.xlsx
+++ b/EXCEL/Main EXCEL SHEET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="19635" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="TEXT FUNCTIONS" sheetId="2" r:id="rId1"/>
@@ -2383,8 +2383,8 @@
   <sheetPr/>
   <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C6" s="23">
         <f ca="1">TODAY()</f>
-        <v>45756</v>
+        <v>45774</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="C8" s="24">
         <f ca="1">NOW()</f>
-        <v>45756.9052083333</v>
+        <v>45774.5026157407</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C22" s="25">
         <f ca="1">WEEKDAY(NOW())</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="25">
         <f>WEEKDAY("2025-01-20")</f>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="D24" s="25">
         <f ca="1">WEEKNUM(NOW())</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24" s="19"/>
     </row>
@@ -4844,8 +4844,8 @@
   <sheetPr/>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
